--- a/Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED02B4CB-D1BA-4148-B004-15368E68149F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LPL" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,153 +686,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5050100</v>
+        <v>6114100</v>
       </c>
       <c r="E8" s="3">
-        <v>5107600</v>
+        <v>5370100</v>
       </c>
       <c r="F8" s="3">
-        <v>6413500</v>
+        <v>4937900</v>
       </c>
       <c r="G8" s="3">
-        <v>6275800</v>
+        <v>4994100</v>
       </c>
       <c r="H8" s="3">
-        <v>5966000</v>
+        <v>6270900</v>
       </c>
       <c r="I8" s="3">
+        <v>6136300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5833400</v>
+      </c>
+      <c r="K8" s="3">
         <v>6355900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7142400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4630100</v>
+        <v>5068900</v>
       </c>
       <c r="E9" s="3">
-        <v>4619800</v>
+        <v>4588000</v>
       </c>
       <c r="F9" s="3">
-        <v>5624300</v>
+        <v>4527200</v>
       </c>
       <c r="G9" s="3">
-        <v>5145800</v>
+        <v>4517100</v>
       </c>
       <c r="H9" s="3">
-        <v>4603500</v>
+        <v>5499300</v>
       </c>
       <c r="I9" s="3">
+        <v>5031500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4501200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4808600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>5726100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>420100</v>
+        <v>1045200</v>
       </c>
       <c r="E10" s="3">
-        <v>487900</v>
+        <v>782100</v>
       </c>
       <c r="F10" s="3">
-        <v>789200</v>
+        <v>410700</v>
       </c>
       <c r="G10" s="3">
-        <v>1130000</v>
+        <v>477000</v>
       </c>
       <c r="H10" s="3">
-        <v>1362500</v>
+        <v>771700</v>
       </c>
       <c r="I10" s="3">
+        <v>1104800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1332200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1547400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1416200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,37 +869,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>265400</v>
+        <v>275400</v>
       </c>
       <c r="E12" s="3">
-        <v>256600</v>
+        <v>288800</v>
       </c>
       <c r="F12" s="3">
-        <v>298300</v>
+        <v>259500</v>
       </c>
       <c r="G12" s="3">
-        <v>257500</v>
+        <v>250900</v>
       </c>
       <c r="H12" s="3">
-        <v>280500</v>
+        <v>291700</v>
       </c>
       <c r="I12" s="3">
+        <v>251700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>274200</v>
+      </c>
+      <c r="K12" s="3">
         <v>255800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>276900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,66 +935,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>30200</v>
+        <v>40400</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F14" s="3">
+        <v>29500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-3600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
-        <v>21900</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K14" s="3">
         <v>22700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-7500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>36900</v>
+        <v>42100</v>
       </c>
       <c r="E15" s="3">
-        <v>35800</v>
+        <v>40500</v>
       </c>
       <c r="F15" s="3">
-        <v>31500</v>
+        <v>36100</v>
       </c>
       <c r="G15" s="3">
-        <v>31500</v>
+        <v>35000</v>
       </c>
       <c r="H15" s="3">
-        <v>30500</v>
+        <v>30800</v>
       </c>
       <c r="I15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>29900</v>
+      </c>
+      <c r="K15" s="3">
         <v>31300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>27900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +1021,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5285600</v>
+        <v>5908700</v>
       </c>
       <c r="E17" s="3">
-        <v>5196100</v>
+        <v>5248100</v>
       </c>
       <c r="F17" s="3">
-        <v>6369800</v>
+        <v>5168200</v>
       </c>
       <c r="G17" s="3">
-        <v>5749600</v>
+        <v>5080600</v>
       </c>
       <c r="H17" s="3">
-        <v>5264100</v>
+        <v>6228300</v>
       </c>
       <c r="I17" s="3">
+        <v>5621800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5147100</v>
+      </c>
+      <c r="K17" s="3">
         <v>5454500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6321000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-235500</v>
+        <v>205400</v>
       </c>
       <c r="E18" s="3">
-        <v>-88500</v>
+        <v>122000</v>
       </c>
       <c r="F18" s="3">
-        <v>43700</v>
+        <v>-230300</v>
       </c>
       <c r="G18" s="3">
-        <v>526200</v>
+        <v>-86500</v>
       </c>
       <c r="H18" s="3">
-        <v>701900</v>
+        <v>42700</v>
       </c>
       <c r="I18" s="3">
+        <v>514500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>686300</v>
+      </c>
+      <c r="K18" s="3">
         <v>901500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>821400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,153 +1106,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-51100</v>
+        <v>16600</v>
       </c>
       <c r="E20" s="3">
-        <v>22700</v>
+        <v>-8900</v>
       </c>
       <c r="F20" s="3">
-        <v>13800</v>
+        <v>-50000</v>
       </c>
       <c r="G20" s="3">
-        <v>33700</v>
+        <v>22200</v>
       </c>
       <c r="H20" s="3">
-        <v>66100</v>
+        <v>13500</v>
       </c>
       <c r="I20" s="3">
+        <v>32900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-106000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>159200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>531500</v>
+        <v>974300</v>
       </c>
       <c r="E21" s="3">
-        <v>753400</v>
+        <v>887800</v>
       </c>
       <c r="F21" s="3">
-        <v>854400</v>
+        <v>519700</v>
       </c>
       <c r="G21" s="3">
-        <v>1310600</v>
+        <v>736600</v>
       </c>
       <c r="H21" s="3">
-        <v>1469200</v>
+        <v>835400</v>
       </c>
       <c r="I21" s="3">
+        <v>1281400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1436600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1439800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1628600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>19400</v>
+        <v>15800</v>
       </c>
       <c r="E22" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I22" s="3">
         <v>20500</v>
       </c>
-      <c r="F22" s="3">
-        <v>17900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>21000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>19400</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K22" s="3">
         <v>23200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>22600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-306000</v>
+        <v>206100</v>
       </c>
       <c r="E23" s="3">
-        <v>-86200</v>
+        <v>97000</v>
       </c>
       <c r="F23" s="3">
-        <v>39600</v>
+        <v>-299200</v>
       </c>
       <c r="G23" s="3">
-        <v>538900</v>
+        <v>-84300</v>
       </c>
       <c r="H23" s="3">
-        <v>748600</v>
+        <v>38700</v>
       </c>
       <c r="I23" s="3">
+        <v>526900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>732000</v>
+      </c>
+      <c r="K23" s="3">
         <v>772300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>958100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-35500</v>
+        <v>71800</v>
       </c>
       <c r="E24" s="3">
-        <v>-42100</v>
+        <v>81600</v>
       </c>
       <c r="F24" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>109300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>85600</v>
-      </c>
       <c r="I24" s="3">
+        <v>106900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>83700</v>
+      </c>
+      <c r="K24" s="3">
         <v>160800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>215800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,66 +1312,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-270500</v>
+        <v>134300</v>
       </c>
       <c r="E26" s="3">
-        <v>-44100</v>
+        <v>15400</v>
       </c>
       <c r="F26" s="3">
-        <v>39300</v>
+        <v>-264500</v>
       </c>
       <c r="G26" s="3">
-        <v>429500</v>
+        <v>-43100</v>
       </c>
       <c r="H26" s="3">
-        <v>663000</v>
+        <v>38400</v>
       </c>
       <c r="I26" s="3">
+        <v>420000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>648300</v>
+      </c>
+      <c r="K26" s="3">
         <v>611500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>742200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-267600</v>
+        <v>128600</v>
       </c>
       <c r="E27" s="3">
-        <v>-53500</v>
+        <v>3000</v>
       </c>
       <c r="F27" s="3">
-        <v>33300</v>
+        <v>-261700</v>
       </c>
       <c r="G27" s="3">
-        <v>397800</v>
+        <v>-52300</v>
       </c>
       <c r="H27" s="3">
-        <v>621300</v>
+        <v>32500</v>
       </c>
       <c r="I27" s="3">
+        <v>388900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>607500</v>
+      </c>
+      <c r="K27" s="3">
         <v>570100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>718200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,8 +1417,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1296,8 +1452,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1325,8 +1487,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1354,66 +1522,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>51100</v>
+        <v>-16600</v>
       </c>
       <c r="E32" s="3">
-        <v>-22700</v>
+        <v>8900</v>
       </c>
       <c r="F32" s="3">
-        <v>-13800</v>
+        <v>50000</v>
       </c>
       <c r="G32" s="3">
-        <v>-33700</v>
+        <v>-22200</v>
       </c>
       <c r="H32" s="3">
-        <v>-66100</v>
+        <v>-13500</v>
       </c>
       <c r="I32" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="K32" s="3">
         <v>106000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-159200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-267600</v>
+        <v>128600</v>
       </c>
       <c r="E33" s="3">
-        <v>-53500</v>
+        <v>3000</v>
       </c>
       <c r="F33" s="3">
-        <v>33300</v>
+        <v>-261700</v>
       </c>
       <c r="G33" s="3">
-        <v>397800</v>
+        <v>-52300</v>
       </c>
       <c r="H33" s="3">
-        <v>621300</v>
+        <v>32500</v>
       </c>
       <c r="I33" s="3">
+        <v>388900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>607500</v>
+      </c>
+      <c r="K33" s="3">
         <v>570100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>718200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1441,71 +1627,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-267600</v>
+        <v>128600</v>
       </c>
       <c r="E35" s="3">
-        <v>-53500</v>
+        <v>3000</v>
       </c>
       <c r="F35" s="3">
-        <v>33300</v>
+        <v>-261700</v>
       </c>
       <c r="G35" s="3">
-        <v>397800</v>
+        <v>-52300</v>
       </c>
       <c r="H35" s="3">
-        <v>621300</v>
+        <v>32500</v>
       </c>
       <c r="I35" s="3">
+        <v>388900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>607500</v>
+      </c>
+      <c r="K35" s="3">
         <v>570100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>718200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1721,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1530,269 +1736,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2566300</v>
+        <v>2081200</v>
       </c>
       <c r="E41" s="3">
-        <v>2364000</v>
+        <v>2429000</v>
       </c>
       <c r="F41" s="3">
-        <v>2342300</v>
+        <v>2509300</v>
       </c>
       <c r="G41" s="3">
-        <v>1776600</v>
+        <v>2311500</v>
       </c>
       <c r="H41" s="3">
-        <v>1385500</v>
+        <v>2290300</v>
       </c>
       <c r="I41" s="3">
+        <v>1737200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1354700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1210300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1402800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>244900</v>
+        <v>3900</v>
       </c>
       <c r="E42" s="3">
-        <v>717500</v>
+        <v>3900</v>
       </c>
       <c r="F42" s="3">
-        <v>616700</v>
+        <v>239400</v>
       </c>
       <c r="G42" s="3">
-        <v>1130100</v>
+        <v>701600</v>
       </c>
       <c r="H42" s="3">
-        <v>890700</v>
+        <v>603000</v>
       </c>
       <c r="I42" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>870900</v>
+      </c>
+      <c r="K42" s="3">
         <v>797300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>982200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>3292900</v>
+        <v>2652800</v>
       </c>
       <c r="E43" s="3">
-        <v>3273900</v>
+        <v>2988700</v>
       </c>
       <c r="F43" s="3">
-        <v>4056000</v>
+        <v>3219700</v>
       </c>
       <c r="G43" s="3">
-        <v>4458400</v>
+        <v>3201100</v>
       </c>
       <c r="H43" s="3">
-        <v>4112200</v>
+        <v>3965900</v>
       </c>
       <c r="I43" s="3">
+        <v>4359300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4020800</v>
+      </c>
+      <c r="K43" s="3">
         <v>4095800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4598400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2187300</v>
+        <v>2368300</v>
       </c>
       <c r="E44" s="3">
-        <v>2115300</v>
+        <v>2276900</v>
       </c>
       <c r="F44" s="3">
-        <v>2115100</v>
+        <v>2138700</v>
       </c>
       <c r="G44" s="3">
-        <v>2397600</v>
+        <v>2068300</v>
       </c>
       <c r="H44" s="3">
-        <v>2109000</v>
+        <v>2068100</v>
       </c>
       <c r="I44" s="3">
+        <v>2344300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2062200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2054900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2059000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>453800</v>
+        <v>637900</v>
       </c>
       <c r="E45" s="3">
-        <v>438000</v>
+        <v>437300</v>
       </c>
       <c r="F45" s="3">
-        <v>296200</v>
+        <v>443700</v>
       </c>
       <c r="G45" s="3">
-        <v>438000</v>
+        <v>428300</v>
       </c>
       <c r="H45" s="3">
-        <v>496800</v>
+        <v>289600</v>
       </c>
       <c r="I45" s="3">
+        <v>428200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>485800</v>
+      </c>
+      <c r="K45" s="3">
         <v>524200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>393400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>8745200</v>
+        <v>7744100</v>
       </c>
       <c r="E46" s="3">
-        <v>8908700</v>
+        <v>8135900</v>
       </c>
       <c r="F46" s="3">
-        <v>9426300</v>
+        <v>8550800</v>
       </c>
       <c r="G46" s="3">
-        <v>10200700</v>
+        <v>8710800</v>
       </c>
       <c r="H46" s="3">
-        <v>8994300</v>
+        <v>9216900</v>
       </c>
       <c r="I46" s="3">
+        <v>9974000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8794500</v>
+      </c>
+      <c r="K46" s="3">
         <v>8682400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9435800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>165000</v>
+        <v>172100</v>
       </c>
       <c r="E47" s="3">
-        <v>147500</v>
+        <v>172300</v>
       </c>
       <c r="F47" s="3">
-        <v>153300</v>
+        <v>161300</v>
       </c>
       <c r="G47" s="3">
-        <v>140600</v>
+        <v>144200</v>
       </c>
       <c r="H47" s="3">
-        <v>130700</v>
+        <v>149900</v>
       </c>
       <c r="I47" s="3">
+        <v>137500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>127800</v>
+      </c>
+      <c r="K47" s="3">
         <v>149500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>197500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>17129400</v>
+        <v>19008100</v>
       </c>
       <c r="E48" s="3">
-        <v>15772600</v>
+        <v>17717300</v>
       </c>
       <c r="F48" s="3">
-        <v>14581800</v>
+        <v>16748800</v>
       </c>
       <c r="G48" s="3">
-        <v>13503700</v>
+        <v>15422100</v>
       </c>
       <c r="H48" s="3">
-        <v>12749300</v>
+        <v>14257700</v>
       </c>
       <c r="I48" s="3">
+        <v>13203600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12466000</v>
+      </c>
+      <c r="K48" s="3">
         <v>11656300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10828300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>851800</v>
+        <v>869100</v>
       </c>
       <c r="E49" s="3">
-        <v>821000</v>
+        <v>873000</v>
       </c>
       <c r="F49" s="3">
-        <v>821500</v>
+        <v>832900</v>
       </c>
       <c r="G49" s="3">
-        <v>799700</v>
+        <v>802700</v>
       </c>
       <c r="H49" s="3">
-        <v>761400</v>
+        <v>803300</v>
       </c>
       <c r="I49" s="3">
+        <v>782000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>744500</v>
+      </c>
+      <c r="K49" s="3">
         <v>764600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>805400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1820,8 +2082,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1849,37 +2117,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1408500</v>
+        <v>1401200</v>
       </c>
       <c r="E52" s="3">
-        <v>1345900</v>
+        <v>1366800</v>
       </c>
       <c r="F52" s="3">
-        <v>1260800</v>
+        <v>1377200</v>
       </c>
       <c r="G52" s="3">
-        <v>1267800</v>
+        <v>1316000</v>
       </c>
       <c r="H52" s="3">
-        <v>1215500</v>
+        <v>1232800</v>
       </c>
       <c r="I52" s="3">
+        <v>1239600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1188500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1071800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1128900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1907,37 +2187,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>28299800</v>
+        <v>29194600</v>
       </c>
       <c r="E54" s="3">
-        <v>26995700</v>
+        <v>28265300</v>
       </c>
       <c r="F54" s="3">
-        <v>26243700</v>
+        <v>27670900</v>
       </c>
       <c r="G54" s="3">
-        <v>25912600</v>
+        <v>26395800</v>
       </c>
       <c r="H54" s="3">
-        <v>23851200</v>
+        <v>25660500</v>
       </c>
       <c r="I54" s="3">
+        <v>25336700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>23321100</v>
+      </c>
+      <c r="K54" s="3">
         <v>22324700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22395900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1949,8 +2241,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1962,182 +2256,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2672600</v>
+        <v>2717000</v>
       </c>
       <c r="E57" s="3">
-        <v>2522600</v>
+        <v>2795500</v>
       </c>
       <c r="F57" s="3">
-        <v>2587600</v>
+        <v>2613300</v>
       </c>
       <c r="G57" s="3">
-        <v>2666600</v>
+        <v>2466500</v>
       </c>
       <c r="H57" s="3">
-        <v>2199300</v>
+        <v>2530100</v>
       </c>
       <c r="I57" s="3">
+        <v>2607300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2150400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2193700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2589600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1964100</v>
+        <v>1367400</v>
       </c>
       <c r="E58" s="3">
-        <v>1933200</v>
+        <v>1802900</v>
       </c>
       <c r="F58" s="3">
-        <v>1307600</v>
+        <v>1920500</v>
       </c>
       <c r="G58" s="3">
-        <v>1097000</v>
+        <v>1890300</v>
       </c>
       <c r="H58" s="3">
-        <v>750700</v>
+        <v>1278600</v>
       </c>
       <c r="I58" s="3">
+        <v>1072600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>734100</v>
+      </c>
+      <c r="K58" s="3">
         <v>690200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>601100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4154900</v>
+        <v>4675500</v>
       </c>
       <c r="E59" s="3">
-        <v>4138000</v>
+        <v>4328100</v>
       </c>
       <c r="F59" s="3">
-        <v>4185600</v>
+        <v>4062600</v>
       </c>
       <c r="G59" s="3">
-        <v>3507700</v>
+        <v>4046000</v>
       </c>
       <c r="H59" s="3">
-        <v>3158500</v>
+        <v>4092600</v>
       </c>
       <c r="I59" s="3">
+        <v>3429700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3088300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3298400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3161700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>8791700</v>
+        <v>8759900</v>
       </c>
       <c r="E60" s="3">
-        <v>8593700</v>
+        <v>8926500</v>
       </c>
       <c r="F60" s="3">
-        <v>8080800</v>
+        <v>8596400</v>
       </c>
       <c r="G60" s="3">
-        <v>7271200</v>
+        <v>8402800</v>
       </c>
       <c r="H60" s="3">
-        <v>6108500</v>
+        <v>7901200</v>
       </c>
       <c r="I60" s="3">
+        <v>7109600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5972800</v>
+      </c>
+      <c r="K60" s="3">
         <v>6182300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6352400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>4845700</v>
+        <v>6164300</v>
       </c>
       <c r="E61" s="3">
-        <v>4125300</v>
+        <v>4984900</v>
       </c>
       <c r="F61" s="3">
-        <v>3735200</v>
+        <v>4738000</v>
       </c>
       <c r="G61" s="3">
-        <v>3748900</v>
+        <v>4033600</v>
       </c>
       <c r="H61" s="3">
-        <v>3769600</v>
+        <v>3652200</v>
       </c>
       <c r="I61" s="3">
+        <v>3665600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3685800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3525400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3699800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1582800</v>
+        <v>1170500</v>
       </c>
       <c r="E62" s="3">
-        <v>933600</v>
+        <v>1424900</v>
       </c>
       <c r="F62" s="3">
-        <v>944400</v>
+        <v>1547700</v>
       </c>
       <c r="G62" s="3">
-        <v>1241100</v>
+        <v>912900</v>
       </c>
       <c r="H62" s="3">
-        <v>842600</v>
+        <v>923400</v>
       </c>
       <c r="I62" s="3">
+        <v>1213500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>823900</v>
+      </c>
+      <c r="K62" s="3">
         <v>278900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>227600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2165,8 +2497,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2194,8 +2532,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2223,37 +2567,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>15746100</v>
+        <v>16892900</v>
       </c>
       <c r="E66" s="3">
-        <v>14182200</v>
+        <v>16124100</v>
       </c>
       <c r="F66" s="3">
-        <v>13307600</v>
+        <v>15396100</v>
       </c>
       <c r="G66" s="3">
-        <v>12831700</v>
+        <v>13867000</v>
       </c>
       <c r="H66" s="3">
-        <v>11249900</v>
+        <v>13011900</v>
       </c>
       <c r="I66" s="3">
+        <v>12546500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>10999900</v>
+      </c>
+      <c r="K66" s="3">
         <v>10453700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10735500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2265,8 +2621,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2294,8 +2652,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2687,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2352,8 +2722,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2381,37 +2757,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>9070300</v>
+        <v>9011200</v>
       </c>
       <c r="E72" s="3">
-        <v>9341200</v>
+        <v>8868700</v>
       </c>
       <c r="F72" s="3">
-        <v>9559400</v>
+        <v>8868700</v>
       </c>
       <c r="G72" s="3">
-        <v>9524300</v>
+        <v>9133600</v>
       </c>
       <c r="H72" s="3">
-        <v>9129000</v>
+        <v>9347000</v>
       </c>
       <c r="I72" s="3">
+        <v>9312600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>8926100</v>
+      </c>
+      <c r="K72" s="3">
         <v>8509500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>8103900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2439,8 +2827,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2468,8 +2862,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2497,37 +2897,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>12553700</v>
+        <v>12301700</v>
       </c>
       <c r="E76" s="3">
-        <v>12813600</v>
+        <v>12141200</v>
       </c>
       <c r="F76" s="3">
-        <v>12936100</v>
+        <v>12274800</v>
       </c>
       <c r="G76" s="3">
-        <v>13080900</v>
+        <v>12528800</v>
       </c>
       <c r="H76" s="3">
-        <v>12601300</v>
+        <v>12648700</v>
       </c>
       <c r="I76" s="3">
+        <v>12790200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>12321300</v>
+      </c>
+      <c r="K76" s="3">
         <v>11871000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11660400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2555,71 +2967,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-267600</v>
+        <v>128600</v>
       </c>
       <c r="E81" s="3">
-        <v>-53500</v>
+        <v>3000</v>
       </c>
       <c r="F81" s="3">
-        <v>33300</v>
+        <v>-261700</v>
       </c>
       <c r="G81" s="3">
-        <v>397800</v>
+        <v>-52300</v>
       </c>
       <c r="H81" s="3">
-        <v>621300</v>
+        <v>32500</v>
       </c>
       <c r="I81" s="3">
+        <v>388900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>607500</v>
+      </c>
+      <c r="K81" s="3">
         <v>570100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>718200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2631,37 +3061,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>818100</v>
+        <v>752400</v>
       </c>
       <c r="E83" s="3">
-        <v>819100</v>
+        <v>774800</v>
       </c>
       <c r="F83" s="3">
-        <v>796900</v>
+        <v>800000</v>
       </c>
       <c r="G83" s="3">
-        <v>750700</v>
+        <v>800900</v>
       </c>
       <c r="H83" s="3">
-        <v>701200</v>
+        <v>779200</v>
       </c>
       <c r="I83" s="3">
+        <v>734000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>685600</v>
+      </c>
+      <c r="K83" s="3">
         <v>644300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>648000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2689,8 +3127,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2718,8 +3162,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,8 +3197,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2776,8 +3232,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2805,37 +3267,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>1292500</v>
+        <v>679800</v>
       </c>
       <c r="E89" s="3">
-        <v>722000</v>
+        <v>1296500</v>
       </c>
       <c r="F89" s="3">
-        <v>1477600</v>
+        <v>1263800</v>
       </c>
       <c r="G89" s="3">
-        <v>1735200</v>
+        <v>705900</v>
       </c>
       <c r="H89" s="3">
-        <v>1757100</v>
+        <v>1444800</v>
       </c>
       <c r="I89" s="3">
+        <v>1696700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1718000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1117800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1214000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2847,37 +3321,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2046900</v>
+        <v>-1662000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1751500</v>
+        <v>-1837100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1721300</v>
+        <v>-1892400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1444700</v>
+        <v>-1597700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1625100</v>
+        <v>-1578600</v>
       </c>
       <c r="I91" s="3">
+        <v>-1299500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1506800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2905,8 +3387,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2934,37 +3422,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1581700</v>
+        <v>-1765100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1760000</v>
+        <v>-1721700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1168700</v>
+        <v>-1546500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1668000</v>
+        <v>-1720900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1706800</v>
+        <v>-1142700</v>
       </c>
       <c r="I94" s="3">
+        <v>-1630900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1668900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-690000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2976,8 +3476,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3005,8 +3507,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3034,8 +3542,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3063,8 +3577,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3092,91 +3612,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>485100</v>
+        <v>736700</v>
       </c>
       <c r="E100" s="3">
-        <v>1004500</v>
+        <v>405400</v>
       </c>
       <c r="F100" s="3">
-        <v>336900</v>
+        <v>474300</v>
       </c>
       <c r="G100" s="3">
-        <v>297100</v>
+        <v>982200</v>
       </c>
       <c r="H100" s="3">
-        <v>91200</v>
+        <v>329400</v>
       </c>
       <c r="I100" s="3">
+        <v>290500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>89200</v>
+      </c>
+      <c r="K100" s="3">
         <v>50900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-190200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>6400</v>
+        <v>800</v>
       </c>
       <c r="E101" s="3">
-        <v>55200</v>
+        <v>-60400</v>
       </c>
       <c r="F101" s="3">
-        <v>-80100</v>
+        <v>6300</v>
       </c>
       <c r="G101" s="3">
-        <v>26800</v>
+        <v>54000</v>
       </c>
       <c r="H101" s="3">
-        <v>33800</v>
+        <v>-78400</v>
       </c>
       <c r="I101" s="3">
+        <v>26200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-71800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>202300</v>
+        <v>-347800</v>
       </c>
       <c r="E102" s="3">
-        <v>21700</v>
+        <v>-80300</v>
       </c>
       <c r="F102" s="3">
-        <v>565700</v>
+        <v>197800</v>
       </c>
       <c r="G102" s="3">
-        <v>391100</v>
+        <v>21200</v>
       </c>
       <c r="H102" s="3">
-        <v>175300</v>
+        <v>553100</v>
       </c>
       <c r="I102" s="3">
+        <v>382400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>171400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-192600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>434500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>90100</v>
       </c>
     </row>

--- a/Financials/Quarterly/LPL_QTR_FIN.xlsx
+++ b/Financials/Quarterly/LPL_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED02B4CB-D1BA-4148-B004-15368E68149F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="LPL" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,178 +651,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6114100</v>
+        <v>4890200</v>
       </c>
       <c r="E8" s="3">
-        <v>5370100</v>
+        <v>4496900</v>
       </c>
       <c r="F8" s="3">
-        <v>4937900</v>
+        <v>4938200</v>
       </c>
       <c r="G8" s="3">
-        <v>4994100</v>
+        <v>5836100</v>
       </c>
       <c r="H8" s="3">
+        <v>5126000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4713400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4767100</v>
+      </c>
+      <c r="K8" s="3">
         <v>6270900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>6136300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>5833400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>6355900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>7142400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>6051400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5068900</v>
+        <v>4636900</v>
       </c>
       <c r="E9" s="3">
-        <v>4588000</v>
+        <v>4092300</v>
       </c>
       <c r="F9" s="3">
-        <v>4527200</v>
+        <v>4406700</v>
       </c>
       <c r="G9" s="3">
-        <v>4517100</v>
+        <v>4838500</v>
       </c>
       <c r="H9" s="3">
+        <v>4379400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4321400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4311800</v>
+      </c>
+      <c r="K9" s="3">
         <v>5499300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>5031500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>4501200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>4808600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>5726100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>5205800</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1045200</v>
+        <v>253300</v>
       </c>
       <c r="E10" s="3">
-        <v>782100</v>
+        <v>404600</v>
       </c>
       <c r="F10" s="3">
-        <v>410700</v>
+        <v>531500</v>
       </c>
       <c r="G10" s="3">
-        <v>477000</v>
+        <v>997700</v>
       </c>
       <c r="H10" s="3">
+        <v>746500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>392100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>455400</v>
+      </c>
+      <c r="K10" s="3">
         <v>771700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>1104800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>1332200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>1547400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>1416200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>845600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -871,43 +875,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>275400</v>
+        <v>182900</v>
       </c>
       <c r="E12" s="3">
-        <v>288800</v>
+        <v>356400</v>
       </c>
       <c r="F12" s="3">
-        <v>259500</v>
+        <v>279800</v>
       </c>
       <c r="G12" s="3">
-        <v>250900</v>
+        <v>262900</v>
       </c>
       <c r="H12" s="3">
+        <v>275700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>247700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>239500</v>
+      </c>
+      <c r="K12" s="3">
         <v>291700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>251700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>274200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>255800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>276900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>268600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,78 +957,105 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>40400</v>
+        <v>121100</v>
       </c>
       <c r="E14" s="3">
-        <v>1300</v>
+        <v>9100</v>
       </c>
       <c r="F14" s="3">
-        <v>29500</v>
+        <v>5100</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>38600</v>
       </c>
       <c r="H14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I14" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-3600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>21400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>22700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>-7500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>42100</v>
+        <v>50800</v>
       </c>
       <c r="E15" s="3">
-        <v>40500</v>
+        <v>45800</v>
       </c>
       <c r="F15" s="3">
-        <v>36100</v>
+        <v>45700</v>
       </c>
       <c r="G15" s="3">
-        <v>35000</v>
+        <v>40100</v>
       </c>
       <c r="H15" s="3">
+        <v>38600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>34500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K15" s="3">
         <v>30800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>30800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>29900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>31300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>27900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>28100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,78 +1066,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5908700</v>
+        <v>5378200</v>
       </c>
       <c r="E17" s="3">
-        <v>5248100</v>
+        <v>4815700</v>
       </c>
       <c r="F17" s="3">
-        <v>5168200</v>
+        <v>5054200</v>
       </c>
       <c r="G17" s="3">
-        <v>5080600</v>
+        <v>5640100</v>
       </c>
       <c r="H17" s="3">
+        <v>5009600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4933200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4849700</v>
+      </c>
+      <c r="K17" s="3">
         <v>6228300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>5621800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>5147100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>5454500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>6321000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>5764300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>205400</v>
+        <v>-488000</v>
       </c>
       <c r="E18" s="3">
-        <v>122000</v>
+        <v>-318900</v>
       </c>
       <c r="F18" s="3">
-        <v>-230300</v>
+        <v>-116000</v>
       </c>
       <c r="G18" s="3">
-        <v>-86500</v>
+        <v>196000</v>
       </c>
       <c r="H18" s="3">
+        <v>116400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-219800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="K18" s="3">
         <v>42700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>514500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>686300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>901500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>821400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>287100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1108,183 +1172,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16600</v>
+        <v>32000</v>
       </c>
       <c r="E20" s="3">
-        <v>-8900</v>
+        <v>-25100</v>
       </c>
       <c r="F20" s="3">
-        <v>-50000</v>
+        <v>23700</v>
       </c>
       <c r="G20" s="3">
-        <v>22200</v>
+        <v>15800</v>
       </c>
       <c r="H20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K20" s="3">
         <v>13500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>32900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>64600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-106000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>159200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>974300</v>
+        <v>361900</v>
       </c>
       <c r="E21" s="3">
-        <v>887800</v>
+        <v>413600</v>
       </c>
       <c r="F21" s="3">
-        <v>519700</v>
+        <v>589100</v>
       </c>
       <c r="G21" s="3">
-        <v>736600</v>
+        <v>930000</v>
       </c>
       <c r="H21" s="3">
+        <v>847500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>496100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>703100</v>
+      </c>
+      <c r="K21" s="3">
         <v>835400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1281400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>1436600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>1439800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>1628600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>879200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>15800</v>
+        <v>48200</v>
       </c>
       <c r="E22" s="3">
-        <v>16000</v>
+        <v>27600</v>
       </c>
       <c r="F22" s="3">
+        <v>15700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>17500</v>
+      </c>
+      <c r="L22" s="3">
+        <v>20500</v>
+      </c>
+      <c r="M22" s="3">
         <v>18900</v>
       </c>
-      <c r="G22" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>17500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>20500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>18900</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>23200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>22600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>206100</v>
+        <v>-504200</v>
       </c>
       <c r="E23" s="3">
-        <v>97000</v>
+        <v>-371600</v>
       </c>
       <c r="F23" s="3">
-        <v>-299200</v>
+        <v>-108100</v>
       </c>
       <c r="G23" s="3">
-        <v>-84300</v>
+        <v>196700</v>
       </c>
       <c r="H23" s="3">
+        <v>92600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-285600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="K23" s="3">
         <v>38700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>526900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>732000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>772300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>958100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>223600</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>71800</v>
+        <v>-132700</v>
       </c>
       <c r="E24" s="3">
-        <v>81600</v>
+        <v>90500</v>
       </c>
       <c r="F24" s="3">
-        <v>-34700</v>
+        <v>-55500</v>
       </c>
       <c r="G24" s="3">
-        <v>-41200</v>
+        <v>68500</v>
       </c>
       <c r="H24" s="3">
+        <v>77900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-33200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>106900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>83700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>160800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>215800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>53000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1318,78 +1430,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>134300</v>
+        <v>-371500</v>
       </c>
       <c r="E26" s="3">
-        <v>15400</v>
+        <v>-462200</v>
       </c>
       <c r="F26" s="3">
-        <v>-264500</v>
+        <v>-52600</v>
       </c>
       <c r="G26" s="3">
-        <v>-43100</v>
+        <v>128200</v>
       </c>
       <c r="H26" s="3">
+        <v>14700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-252500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="K26" s="3">
         <v>38400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>420000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>648300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>611500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>742200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>170600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>128600</v>
+        <v>-352300</v>
       </c>
       <c r="E27" s="3">
-        <v>3000</v>
+        <v>-460600</v>
       </c>
       <c r="F27" s="3">
-        <v>-261700</v>
+        <v>-51200</v>
       </c>
       <c r="G27" s="3">
-        <v>-52300</v>
+        <v>122800</v>
       </c>
       <c r="H27" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-249800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="K27" s="3">
         <v>32500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>388900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>607500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>570100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>718200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1423,8 +1562,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1458,8 +1606,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1650,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,78 +1694,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-16600</v>
+        <v>-32000</v>
       </c>
       <c r="E32" s="3">
-        <v>8900</v>
+        <v>25100</v>
       </c>
       <c r="F32" s="3">
-        <v>50000</v>
+        <v>-23700</v>
       </c>
       <c r="G32" s="3">
-        <v>-22200</v>
+        <v>-15800</v>
       </c>
       <c r="H32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>47700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-13500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-32900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-64600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>106000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-159200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>38200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>128600</v>
+        <v>-352300</v>
       </c>
       <c r="E33" s="3">
-        <v>3000</v>
+        <v>-460600</v>
       </c>
       <c r="F33" s="3">
-        <v>-261700</v>
+        <v>-51200</v>
       </c>
       <c r="G33" s="3">
-        <v>-52300</v>
+        <v>122800</v>
       </c>
       <c r="H33" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-249800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="K33" s="3">
         <v>32500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>388900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>607500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>570100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>718200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1633,83 +1826,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>128600</v>
+        <v>-352300</v>
       </c>
       <c r="E35" s="3">
-        <v>3000</v>
+        <v>-460600</v>
       </c>
       <c r="F35" s="3">
-        <v>-261700</v>
+        <v>-51200</v>
       </c>
       <c r="G35" s="3">
-        <v>-52300</v>
+        <v>122800</v>
       </c>
       <c r="H35" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-249800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="K35" s="3">
         <v>32500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>388900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>607500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>570100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>718200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1723,8 +1943,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1738,323 +1961,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2081200</v>
+        <v>2318100</v>
       </c>
       <c r="E41" s="3">
-        <v>2429000</v>
+        <v>2035700</v>
       </c>
       <c r="F41" s="3">
-        <v>2509300</v>
+        <v>2019500</v>
       </c>
       <c r="G41" s="3">
-        <v>2311500</v>
+        <v>1986600</v>
       </c>
       <c r="H41" s="3">
+        <v>2318600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2395200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2206400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2290300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>1737200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>1354700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>1210300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1402800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>968300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>3900</v>
+        <v>700</v>
       </c>
       <c r="E42" s="3">
-        <v>3900</v>
+        <v>1100</v>
       </c>
       <c r="F42" s="3">
-        <v>239400</v>
+        <v>3700</v>
       </c>
       <c r="G42" s="3">
-        <v>701600</v>
+        <v>3700</v>
       </c>
       <c r="H42" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>228500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>669700</v>
+      </c>
+      <c r="K42" s="3">
         <v>603000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>1105000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>870900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>797300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>982200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>1285600</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>2652800</v>
+        <v>3438300</v>
       </c>
       <c r="E43" s="3">
-        <v>2988700</v>
+        <v>2436200</v>
       </c>
       <c r="F43" s="3">
-        <v>3219700</v>
+        <v>2966000</v>
       </c>
       <c r="G43" s="3">
-        <v>3201100</v>
+        <v>2532300</v>
       </c>
       <c r="H43" s="3">
+        <v>2852900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3073400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3055600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3965900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>4359300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>4020800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>4095800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>4598400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>3817600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2368300</v>
+        <v>2290800</v>
       </c>
       <c r="E44" s="3">
-        <v>2276900</v>
+        <v>2158100</v>
       </c>
       <c r="F44" s="3">
-        <v>2138700</v>
+        <v>2209100</v>
       </c>
       <c r="G44" s="3">
-        <v>2068300</v>
+        <v>2260600</v>
       </c>
       <c r="H44" s="3">
+        <v>2173400</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2041500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1974300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2068100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>2344300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>2062200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>2054900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>2059000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>2242800</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>637900</v>
+        <v>1007000</v>
       </c>
       <c r="E45" s="3">
-        <v>437300</v>
+        <v>919800</v>
       </c>
       <c r="F45" s="3">
-        <v>443700</v>
+        <v>793200</v>
       </c>
       <c r="G45" s="3">
-        <v>428300</v>
+        <v>608900</v>
       </c>
       <c r="H45" s="3">
+        <v>417400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>423500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>408800</v>
+      </c>
+      <c r="K45" s="3">
         <v>289600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>428200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>485800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>524200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>393400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>522400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>7744100</v>
+        <v>9054900</v>
       </c>
       <c r="E46" s="3">
-        <v>8135900</v>
+        <v>7550900</v>
       </c>
       <c r="F46" s="3">
-        <v>8550800</v>
+        <v>7991400</v>
       </c>
       <c r="G46" s="3">
-        <v>8710800</v>
+        <v>7392100</v>
       </c>
       <c r="H46" s="3">
+        <v>7766100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8162200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8314800</v>
+      </c>
+      <c r="K46" s="3">
         <v>9216900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>9974000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>8794500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>8682400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>9435800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>8836700</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>172100</v>
+        <v>219300</v>
       </c>
       <c r="E47" s="3">
-        <v>172300</v>
+        <v>180000</v>
       </c>
       <c r="F47" s="3">
-        <v>161300</v>
+        <v>175400</v>
       </c>
       <c r="G47" s="3">
-        <v>144200</v>
+        <v>164300</v>
       </c>
       <c r="H47" s="3">
+        <v>164500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>154000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>137700</v>
+      </c>
+      <c r="K47" s="3">
         <v>149900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>137500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>127800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>149500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>197500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>224000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>19008100</v>
+        <v>19933700</v>
       </c>
       <c r="E48" s="3">
-        <v>17717300</v>
+        <v>20110900</v>
       </c>
       <c r="F48" s="3">
-        <v>16748800</v>
+        <v>19410100</v>
       </c>
       <c r="G48" s="3">
-        <v>15422100</v>
+        <v>18144100</v>
       </c>
       <c r="H48" s="3">
+        <v>16911900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>15987500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14721100</v>
+      </c>
+      <c r="K48" s="3">
         <v>14257700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>13203600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>12466000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>11656300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>10828300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>10247700</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>869100</v>
+        <v>816000</v>
       </c>
       <c r="E49" s="3">
-        <v>873000</v>
+        <v>782400</v>
       </c>
       <c r="F49" s="3">
-        <v>832900</v>
+        <v>828600</v>
       </c>
       <c r="G49" s="3">
-        <v>802700</v>
+        <v>829600</v>
       </c>
       <c r="H49" s="3">
+        <v>833300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>795000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>766200</v>
+      </c>
+      <c r="K49" s="3">
         <v>803300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>782000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>744500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>764600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>805400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>766400</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2088,8 +2395,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2123,43 +2439,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1401200</v>
+        <v>1428300</v>
       </c>
       <c r="E52" s="3">
-        <v>1366800</v>
+        <v>1280400</v>
       </c>
       <c r="F52" s="3">
-        <v>1377200</v>
+        <v>1320400</v>
       </c>
       <c r="G52" s="3">
-        <v>1316000</v>
+        <v>1337500</v>
       </c>
       <c r="H52" s="3">
+        <v>1304700</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1314600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1256200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1232800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1239600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1188500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>1071800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>1128900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>1138400</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2193,43 +2527,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>29194600</v>
+        <v>31452200</v>
       </c>
       <c r="E54" s="3">
-        <v>28265300</v>
+        <v>29904600</v>
       </c>
       <c r="F54" s="3">
-        <v>27670900</v>
+        <v>29725900</v>
       </c>
       <c r="G54" s="3">
-        <v>26395800</v>
+        <v>27867600</v>
       </c>
       <c r="H54" s="3">
+        <v>26980500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>26413100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>25196000</v>
+      </c>
+      <c r="K54" s="3">
         <v>25660500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>25336700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>23321100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>22324700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>22395900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>21213300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2243,8 +2595,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2258,218 +2613,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2717000</v>
+        <v>2245600</v>
       </c>
       <c r="E57" s="3">
-        <v>2795500</v>
+        <v>2364900</v>
       </c>
       <c r="F57" s="3">
-        <v>2613300</v>
+        <v>2495000</v>
       </c>
       <c r="G57" s="3">
-        <v>2466500</v>
+        <v>2593500</v>
       </c>
       <c r="H57" s="3">
+        <v>2668400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2494500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2354400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2530100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>2607300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>2150400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>2193700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>2589600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>2762800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>1367400</v>
+        <v>1612400</v>
       </c>
       <c r="E58" s="3">
-        <v>1802900</v>
+        <v>1551900</v>
       </c>
       <c r="F58" s="3">
-        <v>1920500</v>
+        <v>1343000</v>
       </c>
       <c r="G58" s="3">
-        <v>1890300</v>
+        <v>1305300</v>
       </c>
       <c r="H58" s="3">
+        <v>1721000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1833200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1804300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1278600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>1072600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>734100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>690200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>601100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>1001400</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4675500</v>
+        <v>5080300</v>
       </c>
       <c r="E59" s="3">
-        <v>4328100</v>
+        <v>4668200</v>
       </c>
       <c r="F59" s="3">
-        <v>4062600</v>
+        <v>4335900</v>
       </c>
       <c r="G59" s="3">
-        <v>4046000</v>
+        <v>4463000</v>
       </c>
       <c r="H59" s="3">
+        <v>4131400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3878000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3862100</v>
+      </c>
+      <c r="K59" s="3">
         <v>4092600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3429700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>3088300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>3298400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>3161700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>2603600</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>8759900</v>
+        <v>8938300</v>
       </c>
       <c r="E60" s="3">
-        <v>8926500</v>
+        <v>8585100</v>
       </c>
       <c r="F60" s="3">
-        <v>8596400</v>
+        <v>8173900</v>
       </c>
       <c r="G60" s="3">
-        <v>8402800</v>
+        <v>8361800</v>
       </c>
       <c r="H60" s="3">
+        <v>8520700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>8205600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8020800</v>
+      </c>
+      <c r="K60" s="3">
         <v>7901200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>7109600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>5972800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>6182300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>6352400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>6367800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>6164300</v>
+        <v>9752000</v>
       </c>
       <c r="E61" s="3">
-        <v>4984900</v>
+        <v>8114200</v>
       </c>
       <c r="F61" s="3">
-        <v>4738000</v>
+        <v>7738200</v>
       </c>
       <c r="G61" s="3">
-        <v>4033600</v>
+        <v>5884100</v>
       </c>
       <c r="H61" s="3">
+        <v>4758300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>4522600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3850300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3652200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>3665600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>3685800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>3525400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>3699800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>3312300</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>1170500</v>
+        <v>728100</v>
       </c>
       <c r="E62" s="3">
-        <v>1424900</v>
+        <v>833300</v>
       </c>
       <c r="F62" s="3">
-        <v>1547700</v>
+        <v>970600</v>
       </c>
       <c r="G62" s="3">
-        <v>912900</v>
+        <v>1117300</v>
       </c>
       <c r="H62" s="3">
+        <v>1360100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1477300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>871400</v>
+      </c>
+      <c r="K62" s="3">
         <v>923400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>1213500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>823900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>278900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>227600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2503,8 +2915,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2538,8 +2959,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2573,43 +3003,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>16892900</v>
+        <v>20412400</v>
       </c>
       <c r="E66" s="3">
-        <v>16124100</v>
+        <v>18545100</v>
       </c>
       <c r="F66" s="3">
-        <v>15396100</v>
+        <v>17906300</v>
       </c>
       <c r="G66" s="3">
-        <v>13867000</v>
+        <v>16125100</v>
       </c>
       <c r="H66" s="3">
+        <v>15391100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>14696300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>13236700</v>
+      </c>
+      <c r="K66" s="3">
         <v>13011900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>12546500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>10999900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>10453700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>10735500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>10555600</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2623,8 +3071,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2658,8 +3109,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2693,8 +3153,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2728,8 +3197,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2763,43 +3241,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>9011200</v>
+        <v>7729300</v>
       </c>
       <c r="E72" s="3">
-        <v>8868700</v>
+        <v>8082700</v>
       </c>
       <c r="F72" s="3">
-        <v>8868700</v>
+        <v>8548700</v>
       </c>
       <c r="G72" s="3">
-        <v>9133600</v>
+        <v>8601600</v>
       </c>
       <c r="H72" s="3">
+        <v>8465600</v>
+      </c>
+      <c r="I72" s="3">
+        <v>8465600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>8718500</v>
+      </c>
+      <c r="K72" s="3">
         <v>9347000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>9312600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>8926100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>8509500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>8103900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>7277000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2833,8 +3329,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2868,8 +3373,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2903,43 +3417,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>12301700</v>
+        <v>11039800</v>
       </c>
       <c r="E76" s="3">
-        <v>12141200</v>
+        <v>11359500</v>
       </c>
       <c r="F76" s="3">
-        <v>12274800</v>
+        <v>11819600</v>
       </c>
       <c r="G76" s="3">
-        <v>12528800</v>
+        <v>11742500</v>
       </c>
       <c r="H76" s="3">
+        <v>11589300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>11716800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11959300</v>
+      </c>
+      <c r="K76" s="3">
         <v>12648700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>12790200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>12321300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>11871000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>11660400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>10657700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2973,83 +3505,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>128600</v>
+        <v>-352300</v>
       </c>
       <c r="E81" s="3">
-        <v>3000</v>
+        <v>-460600</v>
       </c>
       <c r="F81" s="3">
-        <v>-261700</v>
+        <v>-51200</v>
       </c>
       <c r="G81" s="3">
-        <v>-52300</v>
+        <v>122800</v>
       </c>
       <c r="H81" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-249800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="K81" s="3">
         <v>32500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>388900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>607500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>570100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>718200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>160000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3063,43 +3622,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>752400</v>
+        <v>817800</v>
       </c>
       <c r="E83" s="3">
-        <v>774800</v>
+        <v>757600</v>
       </c>
       <c r="F83" s="3">
-        <v>800000</v>
+        <v>681400</v>
       </c>
       <c r="G83" s="3">
-        <v>800900</v>
+        <v>718200</v>
       </c>
       <c r="H83" s="3">
+        <v>739600</v>
+      </c>
+      <c r="I83" s="3">
+        <v>763600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>764500</v>
+      </c>
+      <c r="K83" s="3">
         <v>779200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>734000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>685600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>644300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>648000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>630300</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3133,8 +3704,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,8 +3748,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3203,8 +3792,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3238,8 +3836,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3273,43 +3880,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>679800</v>
+        <v>-39100</v>
       </c>
       <c r="E89" s="3">
-        <v>1296500</v>
+        <v>1231500</v>
       </c>
       <c r="F89" s="3">
-        <v>1263800</v>
+        <v>-147800</v>
       </c>
       <c r="G89" s="3">
-        <v>705900</v>
+        <v>648900</v>
       </c>
       <c r="H89" s="3">
+        <v>1237500</v>
+      </c>
+      <c r="I89" s="3">
+        <v>1206300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>673900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1444800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>1696700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>1718000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>1117800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>1214000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>962900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3323,43 +3948,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1662000</v>
+        <v>-1352800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1837100</v>
+        <v>-1853800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1892400</v>
+        <v>-1769800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1597700</v>
+        <v>-1586500</v>
       </c>
       <c r="H91" s="3">
+        <v>-1753600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1806400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1525000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1578600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-1299500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-1506800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-1551200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-1138000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-939000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3393,8 +4030,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3428,43 +4074,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1765100</v>
+        <v>-1240800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1721700</v>
+        <v>-1755000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1546500</v>
+        <v>-1795100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1720900</v>
+        <v>-1684900</v>
       </c>
       <c r="H94" s="3">
+        <v>-1643400</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1476200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1642700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1142700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-1630900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-1668900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-690000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-862200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3478,8 +4142,11 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3513,8 +4180,17 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3548,8 +4224,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3583,8 +4268,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3618,109 +4312,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>736700</v>
+        <v>1548300</v>
       </c>
       <c r="E100" s="3">
-        <v>405400</v>
+        <v>538900</v>
       </c>
       <c r="F100" s="3">
-        <v>474300</v>
+        <v>1924800</v>
       </c>
       <c r="G100" s="3">
-        <v>982200</v>
+        <v>703200</v>
       </c>
       <c r="H100" s="3">
+        <v>387000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>452700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>937500</v>
+      </c>
+      <c r="K100" s="3">
         <v>329400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>290500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>89200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>50900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-190200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
-        <v>-60400</v>
-      </c>
       <c r="F101" s="3">
-        <v>6300</v>
+        <v>51100</v>
       </c>
       <c r="G101" s="3">
-        <v>54000</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
+        <v>-57700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>51600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-78400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>26200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>33000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-71800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>100700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-46000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-347800</v>
+        <v>282500</v>
       </c>
       <c r="E102" s="3">
-        <v>-80300</v>
+        <v>16100</v>
       </c>
       <c r="F102" s="3">
-        <v>197800</v>
+        <v>32900</v>
       </c>
       <c r="G102" s="3">
-        <v>21200</v>
+        <v>-332000</v>
       </c>
       <c r="H102" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>188800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K102" s="3">
         <v>553100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>382400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>171400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-192600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>434500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>90100</v>
       </c>
     </row>
